--- a/admin/shopping-list.xlsx
+++ b/admin/shopping-list.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Private\Sailing\semantic-boat\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F473F297-CF02-46D0-BD44-3AD540000D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E3294B-3C8E-43D0-B2FC-83821FBCE77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22152" yWindow="4836" windowWidth="21576" windowHeight="19848" xr2:uid="{80B9905E-BD30-4360-B291-CD6167FD7B6D}"/>
+    <workbookView xWindow="-26244" yWindow="2976" windowWidth="25824" windowHeight="22248" xr2:uid="{80B9905E-BD30-4360-B291-CD6167FD7B6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Soldering</t>
   </si>
@@ -33,21 +34,9 @@
     <t>flux</t>
   </si>
   <si>
-    <t>preheating plate</t>
-  </si>
-  <si>
     <t>microscope</t>
   </si>
   <si>
-    <t>airgun tips kit</t>
-  </si>
-  <si>
-    <t>hot air solder station (temp and pressure reg)</t>
-  </si>
-  <si>
-    <t>solder station (changeable tips)</t>
-  </si>
-  <si>
     <t>solder wire (min 0.5mm abd up)</t>
   </si>
   <si>
@@ -57,21 +46,6 @@
     <t>flux dispenser / tips</t>
   </si>
   <si>
-    <t>q-tips</t>
-  </si>
-  <si>
-    <t>IPA</t>
-  </si>
-  <si>
-    <t>small paint brush</t>
-  </si>
-  <si>
-    <t>tooth brush or similar</t>
-  </si>
-  <si>
-    <t>acetone</t>
-  </si>
-  <si>
     <t>tip cleaning stuff</t>
   </si>
   <si>
@@ -81,12 +55,15 @@
     <t>PCB mounting kit / holder</t>
   </si>
   <si>
+    <t>solder wick</t>
+  </si>
+  <si>
+    <t>magnifier</t>
+  </si>
+  <si>
     <t>3rd hand</t>
   </si>
   <si>
-    <t>magnifier with mount</t>
-  </si>
-  <si>
     <t>solder paste (compatible manual and hot plate)</t>
   </si>
   <si>
@@ -108,29 +85,173 @@
     <t>0-30V PSU</t>
   </si>
   <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>soldering tips kit (flat tip for dragging with hole)</t>
-  </si>
-  <si>
-    <t>parts</t>
-  </si>
-  <si>
     <t>resistor kit</t>
   </si>
   <si>
     <t>capacitor kit</t>
   </si>
   <si>
-    <t>diode kit</t>
+    <t>screws kit</t>
+  </si>
+  <si>
+    <t>thermal camera</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>side cutters</t>
+  </si>
+  <si>
+    <t>small pliers</t>
+  </si>
+  <si>
+    <t>heat resistant working mat</t>
+  </si>
+  <si>
+    <t>waveform generator</t>
+  </si>
+  <si>
+    <t>Rigol DSO804</t>
+  </si>
+  <si>
+    <t>Andonstar AD210</t>
+  </si>
+  <si>
+    <t>DSlogic Plus</t>
+  </si>
+  <si>
+    <t>UT61E+</t>
+  </si>
+  <si>
+    <t>PNI ST30A 12V 30A</t>
+  </si>
+  <si>
+    <t>KUAIQU 30V10A</t>
+  </si>
+  <si>
+    <t>GW192A</t>
+  </si>
+  <si>
+    <t>solder station, reflow soldering</t>
+  </si>
+  <si>
+    <t>ligthing</t>
+  </si>
+  <si>
+    <t>hot glue gun</t>
+  </si>
+  <si>
+    <t>STM32 debugger</t>
+  </si>
+  <si>
+    <t>PCB Board Kit</t>
+  </si>
+  <si>
+    <t>solid wire kit 24AWG</t>
+  </si>
+  <si>
+    <t>breadboard kit</t>
+  </si>
+  <si>
+    <t>jumper wire kit</t>
+  </si>
+  <si>
+    <t>Multimeter cable kit</t>
+  </si>
+  <si>
+    <t>Zener diode kit</t>
+  </si>
+  <si>
+    <t>DIP passive component kit</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Soldering tools</t>
+  </si>
+  <si>
+    <t>Soldering consumables</t>
+  </si>
+  <si>
+    <t>temperature/humidity sensor (fridge, environment)</t>
+  </si>
+  <si>
+    <t>temperature sensor (engine)</t>
+  </si>
+  <si>
+    <t>high temperature sensor (engine exhaust)</t>
+  </si>
+  <si>
+    <t>environmental sensors</t>
+  </si>
+  <si>
+    <t>2.5mm2 wires</t>
+  </si>
+  <si>
+    <t>flexible wire kit 22AWG</t>
+  </si>
+  <si>
+    <t>Shrinking tube set</t>
+  </si>
+  <si>
+    <t>desoldering pump</t>
+  </si>
+  <si>
+    <t>Crimping kit</t>
+  </si>
+  <si>
+    <t>standoff set plastic</t>
+  </si>
+  <si>
+    <t>YIHUA 982-III</t>
+  </si>
+  <si>
+    <t>Reflow hot air heater</t>
+  </si>
+  <si>
+    <t>FNIRSI SAG-55</t>
+  </si>
+  <si>
+    <t>stripping pliers</t>
+  </si>
+  <si>
+    <t>STLINK-V3SET (digikey)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,12 +260,28 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,13 +293,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="60% - Accent3" xfId="3" builtinId="40"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,182 +622,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56AF37B-9773-4C7E-B057-447E25032A1E}">
-  <dimension ref="B2:C47"/>
+  <dimension ref="B2:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="4.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.88671875" customWidth="1"/>
+    <col min="3" max="3" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>32</v>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F60" s="1">
+        <f>SUM(F1:F59)</f>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
